--- a/Code/Results/Cases/Case_0_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_160/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02606177234184415</v>
+        <v>0.08244627342805799</v>
       </c>
       <c r="D2">
-        <v>0.03112518696154609</v>
+        <v>0.04072730343476749</v>
       </c>
       <c r="E2">
-        <v>0.04402165370593636</v>
+        <v>0.114761846639194</v>
       </c>
       <c r="F2">
-        <v>4.225076795321257</v>
+        <v>4.212240608295559</v>
       </c>
       <c r="G2">
-        <v>4.378290899446995</v>
+        <v>3.614556738805504</v>
       </c>
       <c r="H2">
-        <v>2.26557038010526</v>
+        <v>2.59203304739583</v>
       </c>
       <c r="I2">
-        <v>3.14225373968209</v>
+        <v>3.070072893264268</v>
       </c>
       <c r="J2">
-        <v>0.1425412037155525</v>
+        <v>0.2435914505153747</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09388494294508831</v>
+        <v>0.2099675411597417</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02607501786479283</v>
+        <v>0.08274999149469409</v>
       </c>
       <c r="D3">
-        <v>0.02839745664825344</v>
+        <v>0.03994293178559616</v>
       </c>
       <c r="E3">
-        <v>0.04252390249371096</v>
+        <v>0.115101349042444</v>
       </c>
       <c r="F3">
-        <v>3.735940898226687</v>
+        <v>4.132352122186887</v>
       </c>
       <c r="G3">
-        <v>3.835967127488999</v>
+        <v>3.517155678698856</v>
       </c>
       <c r="H3">
-        <v>2.018847085373437</v>
+        <v>2.555584062300568</v>
       </c>
       <c r="I3">
-        <v>2.775416392561894</v>
+        <v>3.009488150405531</v>
       </c>
       <c r="J3">
-        <v>0.1309553926644256</v>
+        <v>0.2427463245263866</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08880871941671842</v>
+        <v>0.2101991750564309</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02610520870460142</v>
+        <v>0.08295171857556305</v>
       </c>
       <c r="D4">
-        <v>0.02676829639635159</v>
+        <v>0.03945342185512857</v>
       </c>
       <c r="E4">
-        <v>0.04167932217495718</v>
+        <v>0.115350064938136</v>
       </c>
       <c r="F4">
-        <v>3.446648792676285</v>
+        <v>4.085917180444113</v>
       </c>
       <c r="G4">
-        <v>3.514594217692547</v>
+        <v>3.459749556916165</v>
       </c>
       <c r="H4">
-        <v>1.873250183024084</v>
+        <v>2.534735381654968</v>
       </c>
       <c r="I4">
-        <v>2.558417316790354</v>
+        <v>2.97421160859524</v>
       </c>
       <c r="J4">
-        <v>0.1241836648172949</v>
+        <v>0.2423468978062289</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08588399711983641</v>
+        <v>0.2104273127015617</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02612275342914927</v>
+        <v>0.08303776512078898</v>
       </c>
       <c r="D5">
-        <v>0.02611347600561942</v>
+        <v>0.03925191464291444</v>
       </c>
       <c r="E5">
-        <v>0.04135255609788757</v>
+        <v>0.115461545523166</v>
       </c>
       <c r="F5">
-        <v>3.331173010687536</v>
+        <v>4.067648321696367</v>
       </c>
       <c r="G5">
-        <v>3.386155382034104</v>
+        <v>3.436954209929127</v>
       </c>
       <c r="H5">
-        <v>1.815212038271312</v>
+        <v>2.526622299106464</v>
       </c>
       <c r="I5">
-        <v>2.471788330348488</v>
+        <v>2.960316374123423</v>
       </c>
       <c r="J5">
-        <v>0.121500597694137</v>
+        <v>0.2422140927898866</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08473594341416657</v>
+        <v>0.2105418663030818</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02612597524112559</v>
+        <v>0.08305228532055686</v>
       </c>
       <c r="D6">
-        <v>0.02600522741399658</v>
+        <v>0.0392183308581302</v>
       </c>
       <c r="E6">
-        <v>0.0412993086546205</v>
+        <v>0.1154806685284235</v>
       </c>
       <c r="F6">
-        <v>3.312134306871485</v>
+        <v>4.064654153318969</v>
       </c>
       <c r="G6">
-        <v>3.364969885906874</v>
+        <v>3.433205039764971</v>
       </c>
       <c r="H6">
-        <v>1.805647925205591</v>
+        <v>2.525298195254777</v>
       </c>
       <c r="I6">
-        <v>2.457505021940335</v>
+        <v>2.958037992923124</v>
       </c>
       <c r="J6">
-        <v>0.1210594377998859</v>
+        <v>0.2421938481046482</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08454783330609672</v>
+        <v>0.2105621910663373</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02610542446542397</v>
+        <v>0.08295286346701225</v>
       </c>
       <c r="D7">
-        <v>0.02675943146041249</v>
+        <v>0.03945071252308452</v>
       </c>
       <c r="E7">
-        <v>0.04167484662076859</v>
+        <v>0.1153515273962284</v>
       </c>
       <c r="F7">
-        <v>3.445082123082784</v>
+        <v>4.085668158771171</v>
       </c>
       <c r="G7">
-        <v>3.5128523208827</v>
+        <v>3.459439715698323</v>
       </c>
       <c r="H7">
-        <v>1.872462453629566</v>
+        <v>2.53462441806343</v>
       </c>
       <c r="I7">
-        <v>2.557242056207144</v>
+        <v>2.974022272345707</v>
       </c>
       <c r="J7">
-        <v>0.124147182187734</v>
+        <v>0.242344985529158</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08586834231450879</v>
+        <v>0.2104287702335732</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02606156244016233</v>
+        <v>0.08254783659716836</v>
       </c>
       <c r="D8">
-        <v>0.0301736245461619</v>
+        <v>0.04045846743951031</v>
       </c>
       <c r="E8">
-        <v>0.04348871515506758</v>
+        <v>0.1148705526879716</v>
       </c>
       <c r="F8">
-        <v>4.053898494078567</v>
+        <v>4.184149277594315</v>
       </c>
       <c r="G8">
-        <v>4.188631257986088</v>
+        <v>3.580471956284896</v>
       </c>
       <c r="H8">
-        <v>2.179156571757574</v>
+        <v>2.579146356522415</v>
       </c>
       <c r="I8">
-        <v>3.013883027650181</v>
+        <v>3.048782211994393</v>
       </c>
       <c r="J8">
-        <v>0.1384693094068012</v>
+        <v>0.2432752020112616</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09209189598562517</v>
+        <v>0.210029565539557</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02616732581458514</v>
+        <v>0.08187417311723166</v>
       </c>
       <c r="D9">
-        <v>0.03736145937313395</v>
+        <v>0.04237388412350995</v>
       </c>
       <c r="E9">
-        <v>0.04771820491556333</v>
+        <v>0.1142467577313031</v>
       </c>
       <c r="F9">
-        <v>5.354567069081952</v>
+        <v>4.398246425471143</v>
       </c>
       <c r="G9">
-        <v>5.62704384423904</v>
+        <v>3.837093253837452</v>
       </c>
       <c r="H9">
-        <v>2.837276770165772</v>
+        <v>2.678706758664305</v>
       </c>
       <c r="I9">
-        <v>3.989140820601619</v>
+        <v>3.210802522471198</v>
       </c>
       <c r="J9">
-        <v>0.1697728026757233</v>
+        <v>0.2460515404228687</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1060585487994388</v>
+        <v>0.209929476175013</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02639149037022293</v>
+        <v>0.08145228262232607</v>
       </c>
       <c r="D10">
-        <v>0.04316792440211259</v>
+        <v>0.04374684716355404</v>
       </c>
       <c r="E10">
-        <v>0.05136458829692714</v>
+        <v>0.113983230596947</v>
       </c>
       <c r="F10">
-        <v>6.4075983989176</v>
+        <v>4.568651750589652</v>
       </c>
       <c r="G10">
-        <v>6.788339838571574</v>
+        <v>4.037755198530874</v>
       </c>
       <c r="H10">
-        <v>3.372123926481379</v>
+        <v>2.759481704697123</v>
       </c>
       <c r="I10">
-        <v>4.778572460476568</v>
+        <v>3.339479224269638</v>
       </c>
       <c r="J10">
-        <v>0.1955824589681328</v>
+        <v>0.2486782488693251</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1177940953482093</v>
+        <v>0.2102740097251683</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02653432026252034</v>
+        <v>0.08127612052316913</v>
       </c>
       <c r="D11">
-        <v>0.04599096119147461</v>
+        <v>0.04436460860065239</v>
       </c>
       <c r="E11">
-        <v>0.05317732684145149</v>
+        <v>0.1139056729406569</v>
       </c>
       <c r="F11">
-        <v>6.917135116798761</v>
+        <v>4.649092480800277</v>
       </c>
       <c r="G11">
-        <v>7.349578255000779</v>
+        <v>4.131757295952866</v>
       </c>
       <c r="H11">
-        <v>3.631426789102534</v>
+        <v>2.797920588989996</v>
       </c>
       <c r="I11">
-        <v>5.160541781836145</v>
+        <v>3.400165733711333</v>
       </c>
       <c r="J11">
-        <v>0.2081792633230464</v>
+        <v>0.2500021465127134</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1235678894534615</v>
+        <v>0.2105219793650548</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0265953030109678</v>
+        <v>0.0812116711778863</v>
       </c>
       <c r="D12">
-        <v>0.04709356335170867</v>
+        <v>0.04459760866350493</v>
       </c>
       <c r="E12">
-        <v>0.0538898301609656</v>
+        <v>0.1138823922789776</v>
       </c>
       <c r="F12">
-        <v>7.115472185974369</v>
+        <v>4.679979194737001</v>
       </c>
       <c r="G12">
-        <v>7.567945055893802</v>
+        <v>4.167751078159426</v>
       </c>
       <c r="H12">
-        <v>3.732438977037134</v>
+        <v>2.812722783112577</v>
       </c>
       <c r="I12">
-        <v>5.309222227569251</v>
+        <v>3.423459690805061</v>
       </c>
       <c r="J12">
-        <v>0.2130987073828408</v>
+        <v>0.2505221380716804</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1258291443935562</v>
+        <v>0.2106290343934134</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02658184322602963</v>
+        <v>0.08122545111196011</v>
       </c>
       <c r="D13">
-        <v>0.046854464723733</v>
+        <v>0.04454746867695292</v>
       </c>
       <c r="E13">
-        <v>0.05373514888371922</v>
+        <v>0.1138871353343625</v>
       </c>
       <c r="F13">
-        <v>7.072498715074488</v>
+        <v>4.673308175592751</v>
       </c>
       <c r="G13">
-        <v>7.520635911816498</v>
+        <v>4.159981407583189</v>
       </c>
       <c r="H13">
-        <v>3.710549186058188</v>
+        <v>2.809523872179454</v>
       </c>
       <c r="I13">
-        <v>5.277007819514807</v>
+        <v>3.418428921644534</v>
       </c>
       <c r="J13">
-        <v>0.2120320921623389</v>
+        <v>0.2504093168565475</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1253385880907913</v>
+        <v>0.2106053925704572</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02653919227538459</v>
+        <v>0.08127077299139174</v>
       </c>
       <c r="D14">
-        <v>0.04608095022070557</v>
+        <v>0.04438379608434317</v>
       </c>
       <c r="E14">
-        <v>0.05323539706518687</v>
+        <v>0.1139036355800833</v>
       </c>
       <c r="F14">
-        <v>6.933337907015044</v>
+        <v>4.651624989708097</v>
       </c>
       <c r="G14">
-        <v>7.367419204011696</v>
+        <v>4.134710529563506</v>
       </c>
       <c r="H14">
-        <v>3.639677197387357</v>
+        <v>2.799133424391812</v>
       </c>
       <c r="I14">
-        <v>5.172687974147465</v>
+        <v>3.402075839405256</v>
       </c>
       <c r="J14">
-        <v>0.2085808243664076</v>
+        <v>0.2500445519021923</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1237523439460944</v>
+        <v>0.2105305230119541</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02651400052661046</v>
+        <v>0.08129882800266053</v>
       </c>
       <c r="D15">
-        <v>0.04561177777998537</v>
+        <v>0.0442834217970649</v>
       </c>
       <c r="E15">
-        <v>0.05293280946901824</v>
+        <v>0.1139145354882327</v>
       </c>
       <c r="F15">
-        <v>6.848833022544</v>
+        <v>4.638398991914102</v>
       </c>
       <c r="G15">
-        <v>7.274366803704083</v>
+        <v>4.119283301500786</v>
       </c>
       <c r="H15">
-        <v>3.59665076302673</v>
+        <v>2.792801120007255</v>
       </c>
       <c r="I15">
-        <v>5.109340052304901</v>
+        <v>3.392100025023069</v>
       </c>
       <c r="J15">
-        <v>0.2064871499824292</v>
+        <v>0.2498235563125561</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1227908821843471</v>
+        <v>0.2104863773735062</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02638305939448138</v>
+        <v>0.0814641117557624</v>
       </c>
       <c r="D16">
-        <v>0.04298768278775711</v>
+        <v>0.04370634195043266</v>
       </c>
       <c r="E16">
-        <v>0.05124953560459922</v>
+        <v>0.1139891510305127</v>
       </c>
       <c r="F16">
-        <v>6.37499323064381</v>
+        <v>4.563454017970486</v>
       </c>
       <c r="G16">
-        <v>6.752413108781866</v>
+        <v>4.03166719115859</v>
       </c>
       <c r="H16">
-        <v>3.355541540488559</v>
+        <v>2.757003943429652</v>
       </c>
       <c r="I16">
-        <v>4.754130078060456</v>
+        <v>3.335556838464754</v>
       </c>
       <c r="J16">
-        <v>0.1947785599148517</v>
+        <v>0.2485943341445704</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1174265089371715</v>
+        <v>0.2102596431740693</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02631384021723804</v>
+        <v>0.08156953925634802</v>
       </c>
       <c r="D17">
-        <v>0.04142915061144947</v>
+        <v>0.0433506113365496</v>
       </c>
       <c r="E17">
-        <v>0.05025886822348369</v>
+        <v>0.1140457667778136</v>
       </c>
       <c r="F17">
-        <v>6.09276463541363</v>
+        <v>4.518229954706555</v>
       </c>
       <c r="G17">
-        <v>6.441359504858212</v>
+        <v>3.978618488073664</v>
       </c>
       <c r="H17">
-        <v>3.212060327515985</v>
+        <v>2.7354792489337</v>
       </c>
       <c r="I17">
-        <v>4.542556348882243</v>
+        <v>3.301423122165716</v>
       </c>
       <c r="J17">
-        <v>0.1878318083602366</v>
+        <v>0.2478733625171117</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1142550135739739</v>
+        <v>0.21014394140159</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02627779810831044</v>
+        <v>0.08163166196550797</v>
       </c>
       <c r="D18">
-        <v>0.0405492809437753</v>
+        <v>0.0431453610546626</v>
       </c>
       <c r="E18">
-        <v>0.04970327790438134</v>
+        <v>0.1140823140050493</v>
       </c>
       <c r="F18">
-        <v>5.933234415674832</v>
+        <v>4.49249302299387</v>
       </c>
       <c r="G18">
-        <v>6.265473570227186</v>
+        <v>3.948361920073637</v>
       </c>
       <c r="H18">
-        <v>3.131002497170982</v>
+        <v>2.723258095245626</v>
       </c>
       <c r="I18">
-        <v>4.422962202112984</v>
+        <v>3.281992512070133</v>
       </c>
       <c r="J18">
-        <v>0.1839149076254927</v>
+        <v>0.2474708134322796</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1124709473735805</v>
+        <v>0.2100859785397517</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02626621568557397</v>
+        <v>0.08165295066009293</v>
       </c>
       <c r="D19">
-        <v>0.04025401808830864</v>
+        <v>0.04307575493768567</v>
       </c>
       <c r="E19">
-        <v>0.04951750018519441</v>
+        <v>0.1140953723361378</v>
       </c>
       <c r="F19">
-        <v>5.879674257175111</v>
+        <v>4.483825969884379</v>
       </c>
       <c r="G19">
-        <v>6.206411412100408</v>
+        <v>3.938161289513062</v>
       </c>
       <c r="H19">
-        <v>3.103795999825138</v>
+        <v>2.719147500196925</v>
       </c>
       <c r="I19">
-        <v>4.382809717369526</v>
+        <v>3.275448249123514</v>
       </c>
       <c r="J19">
-        <v>0.1826015205339786</v>
+        <v>0.2473365980628799</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1118734487474882</v>
+        <v>0.2100678269108585</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02632081190104429</v>
+        <v>0.0815581628205706</v>
       </c>
       <c r="D20">
-        <v>0.04159329734899941</v>
+        <v>0.04338854573108009</v>
       </c>
       <c r="E20">
-        <v>0.05036282954478466</v>
+        <v>0.1140393276552434</v>
       </c>
       <c r="F20">
-        <v>6.122512011624508</v>
+        <v>4.523015659545337</v>
       </c>
       <c r="G20">
-        <v>6.474151560010284</v>
+        <v>3.984239111306863</v>
       </c>
       <c r="H20">
-        <v>3.227178744967716</v>
+        <v>2.737754085559743</v>
       </c>
       <c r="I20">
-        <v>4.564856750795599</v>
+        <v>3.305035758850011</v>
       </c>
       <c r="J20">
-        <v>0.1885629867036798</v>
+        <v>0.2479488544886479</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1145883948736142</v>
+        <v>0.2101553692208284</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02655152317899478</v>
+        <v>0.08125739958887657</v>
       </c>
       <c r="D21">
-        <v>0.04630716962803305</v>
+        <v>0.04443189563728112</v>
       </c>
       <c r="E21">
-        <v>0.0533814434368729</v>
+        <v>0.1138986237849053</v>
       </c>
       <c r="F21">
-        <v>6.974057482925446</v>
+        <v>4.657982274591717</v>
       </c>
       <c r="G21">
-        <v>7.412254179339527</v>
+        <v>4.142122368998002</v>
       </c>
       <c r="H21">
-        <v>3.660412740917366</v>
+        <v>2.802178646993468</v>
       </c>
       <c r="I21">
-        <v>5.203212817169884</v>
+        <v>3.406870600930233</v>
       </c>
       <c r="J21">
-        <v>0.2095902535065903</v>
+        <v>0.2501511848732676</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.124216119263501</v>
+        <v>0.210552156729598</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0267432022502021</v>
+        <v>0.08107400013837207</v>
       </c>
       <c r="D22">
-        <v>0.04958869836140778</v>
+        <v>0.04510837003721591</v>
       </c>
       <c r="E22">
-        <v>0.05550868422093735</v>
+        <v>0.1138421573596506</v>
       </c>
       <c r="F22">
-        <v>7.562637285659008</v>
+        <v>4.748673783272181</v>
       </c>
       <c r="G22">
-        <v>8.060100100838611</v>
+        <v>4.247626492829795</v>
       </c>
       <c r="H22">
-        <v>3.960329515028263</v>
+        <v>2.845720272745666</v>
       </c>
       <c r="I22">
-        <v>5.644433062649739</v>
+        <v>3.475253603156972</v>
       </c>
       <c r="J22">
-        <v>0.2242200724861121</v>
+        <v>0.2516993557020299</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1309525536105909</v>
+        <v>0.2108881709999224</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02663674065815513</v>
+        <v>0.08117068124059301</v>
       </c>
       <c r="D23">
-        <v>0.04781590538000913</v>
+        <v>0.04474780300201076</v>
       </c>
       <c r="E23">
-        <v>0.05435766828199995</v>
+        <v>0.1138690459237601</v>
       </c>
       <c r="F23">
-        <v>7.245173514080705</v>
+        <v>4.700041032170901</v>
       </c>
       <c r="G23">
-        <v>7.710718857118195</v>
+        <v>4.191102778043899</v>
       </c>
       <c r="H23">
-        <v>3.798517969767545</v>
+        <v>2.822348962675051</v>
       </c>
       <c r="I23">
-        <v>5.406450841932923</v>
+        <v>3.438587690463493</v>
       </c>
       <c r="J23">
-        <v>0.2163203021390814</v>
+        <v>0.2508630729908106</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1273117165891193</v>
+        <v>0.2107018048311602</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02631764838627326</v>
+        <v>0.08156330139994239</v>
       </c>
       <c r="D24">
-        <v>0.04151903683718672</v>
+        <v>0.04337139788746924</v>
       </c>
       <c r="E24">
-        <v>0.05031578544027226</v>
+        <v>0.1140422263295857</v>
       </c>
       <c r="F24">
-        <v>6.109054801839648</v>
+        <v>4.520851223648407</v>
       </c>
       <c r="G24">
-        <v>6.459317184700353</v>
+        <v>3.981697274730891</v>
       </c>
       <c r="H24">
-        <v>3.22033928737693</v>
+        <v>2.73672515344083</v>
       </c>
       <c r="I24">
-        <v>4.554768431698989</v>
+        <v>3.303401883963858</v>
       </c>
       <c r="J24">
-        <v>0.1882321834091698</v>
+        <v>0.2479146873642009</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.114437551761668</v>
+        <v>0.2101501760574394</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02611552432035325</v>
+        <v>0.0820435555268002</v>
       </c>
       <c r="D25">
-        <v>0.03534374412694419</v>
+        <v>0.04186193773043811</v>
       </c>
       <c r="E25">
-        <v>0.04649006697036562</v>
+        <v>0.1143813132760521</v>
       </c>
       <c r="F25">
-        <v>4.988285356302896</v>
+        <v>4.338049164424831</v>
       </c>
       <c r="G25">
-        <v>5.222521133830298</v>
+        <v>3.765568830016434</v>
       </c>
       <c r="H25">
-        <v>2.651621494352298</v>
+        <v>2.650445154802867</v>
       </c>
       <c r="I25">
-        <v>3.714525959202007</v>
+        <v>3.165296621382623</v>
       </c>
       <c r="J25">
-        <v>0.1608814763124471</v>
+        <v>0.2451978751497634</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.102054553468939</v>
+        <v>0.2098832758478721</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_160/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08244627342805799</v>
+        <v>0.02606177234153861</v>
       </c>
       <c r="D2">
-        <v>0.04072730343476749</v>
+        <v>0.03112518696159583</v>
       </c>
       <c r="E2">
-        <v>0.114761846639194</v>
+        <v>0.04402165370593458</v>
       </c>
       <c r="F2">
-        <v>4.212240608295559</v>
+        <v>4.225076795321286</v>
       </c>
       <c r="G2">
-        <v>3.614556738805504</v>
+        <v>4.378290899446995</v>
       </c>
       <c r="H2">
-        <v>2.59203304739583</v>
+        <v>2.265570380105316</v>
       </c>
       <c r="I2">
-        <v>3.070072893264268</v>
+        <v>3.14225373968209</v>
       </c>
       <c r="J2">
-        <v>0.2435914505153747</v>
+        <v>0.1425412037156519</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2099675411597417</v>
+        <v>0.09388494294524463</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08274999149469409</v>
+        <v>0.0260750178652458</v>
       </c>
       <c r="D3">
-        <v>0.03994293178559616</v>
+        <v>0.02839745664860871</v>
       </c>
       <c r="E3">
-        <v>0.115101349042444</v>
+        <v>0.04252390249364346</v>
       </c>
       <c r="F3">
-        <v>4.132352122186887</v>
+        <v>3.735940898226659</v>
       </c>
       <c r="G3">
-        <v>3.517155678698856</v>
+        <v>3.835967127488971</v>
       </c>
       <c r="H3">
-        <v>2.555584062300568</v>
+        <v>2.018847085373437</v>
       </c>
       <c r="I3">
-        <v>3.009488150405531</v>
+        <v>2.775416392561851</v>
       </c>
       <c r="J3">
-        <v>0.2427463245263866</v>
+        <v>0.1309553926645535</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2101991750564309</v>
+        <v>0.08880871941686763</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08295171857556305</v>
+        <v>0.02610520870483768</v>
       </c>
       <c r="D4">
-        <v>0.03945342185512857</v>
+        <v>0.02676829639597855</v>
       </c>
       <c r="E4">
-        <v>0.115350064938136</v>
+        <v>0.04167932217496073</v>
       </c>
       <c r="F4">
-        <v>4.085917180444113</v>
+        <v>3.446648792676342</v>
       </c>
       <c r="G4">
-        <v>3.459749556916165</v>
+        <v>3.514594217692633</v>
       </c>
       <c r="H4">
-        <v>2.534735381654968</v>
+        <v>1.873250183024197</v>
       </c>
       <c r="I4">
-        <v>2.97421160859524</v>
+        <v>2.558417316790369</v>
       </c>
       <c r="J4">
-        <v>0.2423468978062289</v>
+        <v>0.1241836648172026</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2104273127015617</v>
+        <v>0.08588399711985062</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08303776512078898</v>
+        <v>0.02612275342887571</v>
       </c>
       <c r="D5">
-        <v>0.03925191464291444</v>
+        <v>0.026113476005591</v>
       </c>
       <c r="E5">
-        <v>0.115461545523166</v>
+        <v>0.04135255609788402</v>
       </c>
       <c r="F5">
-        <v>4.067648321696367</v>
+        <v>3.331173010687536</v>
       </c>
       <c r="G5">
-        <v>3.436954209929127</v>
+        <v>3.386155382034019</v>
       </c>
       <c r="H5">
-        <v>2.526622299106464</v>
+        <v>1.815212038271369</v>
       </c>
       <c r="I5">
-        <v>2.960316374123423</v>
+        <v>2.471788330348488</v>
       </c>
       <c r="J5">
-        <v>0.2422140927898866</v>
+        <v>0.1215005976941086</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2105418663030818</v>
+        <v>0.08473594341413815</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08305228532055686</v>
+        <v>0.02612597524112381</v>
       </c>
       <c r="D6">
-        <v>0.0392183308581302</v>
+        <v>0.02600522741399658</v>
       </c>
       <c r="E6">
-        <v>0.1154806685284235</v>
+        <v>0.04129930865465248</v>
       </c>
       <c r="F6">
-        <v>4.064654153318969</v>
+        <v>3.312134306871457</v>
       </c>
       <c r="G6">
-        <v>3.433205039764971</v>
+        <v>3.364969885906902</v>
       </c>
       <c r="H6">
-        <v>2.525298195254777</v>
+        <v>1.805647925205619</v>
       </c>
       <c r="I6">
-        <v>2.958037992923124</v>
+        <v>2.457505021940335</v>
       </c>
       <c r="J6">
-        <v>0.2421938481046482</v>
+        <v>0.1210594377998717</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2105621910663373</v>
+        <v>0.08454783330613935</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08295286346701225</v>
+        <v>0.02610542446519837</v>
       </c>
       <c r="D7">
-        <v>0.03945071252308452</v>
+        <v>0.02675943146029525</v>
       </c>
       <c r="E7">
-        <v>0.1153515273962284</v>
+        <v>0.04167484662080057</v>
       </c>
       <c r="F7">
-        <v>4.085668158771171</v>
+        <v>3.445082123082813</v>
       </c>
       <c r="G7">
-        <v>3.459439715698323</v>
+        <v>3.512852320882587</v>
       </c>
       <c r="H7">
-        <v>2.53462441806343</v>
+        <v>1.872462453629453</v>
       </c>
       <c r="I7">
-        <v>2.974022272345707</v>
+        <v>2.557242056207144</v>
       </c>
       <c r="J7">
-        <v>0.242344985529158</v>
+        <v>0.1241471821878051</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2104287702335732</v>
+        <v>0.08586834231433116</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08254783659716836</v>
+        <v>0.02606156244044833</v>
       </c>
       <c r="D8">
-        <v>0.04045846743951031</v>
+        <v>0.03017362454615835</v>
       </c>
       <c r="E8">
-        <v>0.1148705526879716</v>
+        <v>0.04348871515513508</v>
       </c>
       <c r="F8">
-        <v>4.184149277594315</v>
+        <v>4.053898494078595</v>
       </c>
       <c r="G8">
-        <v>3.580471956284896</v>
+        <v>4.188631257986117</v>
       </c>
       <c r="H8">
-        <v>2.579146356522415</v>
+        <v>2.17915657175746</v>
       </c>
       <c r="I8">
-        <v>3.048782211994393</v>
+        <v>3.013883027650181</v>
       </c>
       <c r="J8">
-        <v>0.2432752020112616</v>
+        <v>0.1384693094066307</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.210029565539557</v>
+        <v>0.09209189598570333</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08187417311723166</v>
+        <v>0.02616732581480186</v>
       </c>
       <c r="D9">
-        <v>0.04237388412350995</v>
+        <v>0.03736145937351765</v>
       </c>
       <c r="E9">
-        <v>0.1142467577313031</v>
+        <v>0.04771820491553491</v>
       </c>
       <c r="F9">
-        <v>4.398246425471143</v>
+        <v>5.354567069081952</v>
       </c>
       <c r="G9">
-        <v>3.837093253837452</v>
+        <v>5.627043844238926</v>
       </c>
       <c r="H9">
-        <v>2.678706758664305</v>
+        <v>2.837276770165715</v>
       </c>
       <c r="I9">
-        <v>3.210802522471198</v>
+        <v>3.989140820601619</v>
       </c>
       <c r="J9">
-        <v>0.2460515404228687</v>
+        <v>0.1697728026757446</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.209929476175013</v>
+        <v>0.1060585487993606</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08145228262232607</v>
+        <v>0.02639149037022648</v>
       </c>
       <c r="D10">
-        <v>0.04374684716355404</v>
+        <v>0.04316792440207706</v>
       </c>
       <c r="E10">
-        <v>0.113983230596947</v>
+        <v>0.05136458829693247</v>
       </c>
       <c r="F10">
-        <v>4.568651750589652</v>
+        <v>6.4075983989176</v>
       </c>
       <c r="G10">
-        <v>4.037755198530874</v>
+        <v>6.788339838571574</v>
       </c>
       <c r="H10">
-        <v>2.759481704697123</v>
+        <v>3.372123926481322</v>
       </c>
       <c r="I10">
-        <v>3.339479224269638</v>
+        <v>4.778572460476596</v>
       </c>
       <c r="J10">
-        <v>0.2486782488693251</v>
+        <v>0.1955824589680759</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2102740097251683</v>
+        <v>0.1177940953481382</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08127612052316913</v>
+        <v>0.02653432026231961</v>
       </c>
       <c r="D11">
-        <v>0.04436460860065239</v>
+        <v>0.04599096119169843</v>
       </c>
       <c r="E11">
-        <v>0.1139056729406569</v>
+        <v>0.05317732684143905</v>
       </c>
       <c r="F11">
-        <v>4.649092480800277</v>
+        <v>6.917135116798676</v>
       </c>
       <c r="G11">
-        <v>4.131757295952866</v>
+        <v>7.349578255000665</v>
       </c>
       <c r="H11">
-        <v>2.797920588989996</v>
+        <v>3.631426789102477</v>
       </c>
       <c r="I11">
-        <v>3.400165733711333</v>
+        <v>5.160541781836116</v>
       </c>
       <c r="J11">
-        <v>0.2500021465127134</v>
+        <v>0.2081792633228048</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2105219793650548</v>
+        <v>0.1235678894536107</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0812116711778863</v>
+        <v>0.0265953030109749</v>
       </c>
       <c r="D12">
-        <v>0.04459760866350493</v>
+        <v>0.04709356335193249</v>
       </c>
       <c r="E12">
-        <v>0.1138823922789776</v>
+        <v>0.05388983016094073</v>
       </c>
       <c r="F12">
-        <v>4.679979194737001</v>
+        <v>7.11547218597434</v>
       </c>
       <c r="G12">
-        <v>4.167751078159426</v>
+        <v>7.567945055893745</v>
       </c>
       <c r="H12">
-        <v>2.812722783112577</v>
+        <v>3.732438977037191</v>
       </c>
       <c r="I12">
-        <v>3.423459690805061</v>
+        <v>5.309222227569251</v>
       </c>
       <c r="J12">
-        <v>0.2505221380716804</v>
+        <v>0.2130987073826489</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2106290343934134</v>
+        <v>0.1258291443934709</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08122545111196011</v>
+        <v>0.02658184322604562</v>
       </c>
       <c r="D13">
-        <v>0.04454746867695292</v>
+        <v>0.04685446472378985</v>
       </c>
       <c r="E13">
-        <v>0.1138871353343625</v>
+        <v>0.05373514888365349</v>
       </c>
       <c r="F13">
-        <v>4.673308175592751</v>
+        <v>7.072498715074431</v>
       </c>
       <c r="G13">
-        <v>4.159981407583189</v>
+        <v>7.520635911816385</v>
       </c>
       <c r="H13">
-        <v>2.809523872179454</v>
+        <v>3.710549186058017</v>
       </c>
       <c r="I13">
-        <v>3.418428921644534</v>
+        <v>5.277007819514779</v>
       </c>
       <c r="J13">
-        <v>0.2504093168565475</v>
+        <v>0.2120320921623033</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2106053925704572</v>
+        <v>0.1253385880908553</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08127077299139174</v>
+        <v>0.02653919227546986</v>
       </c>
       <c r="D14">
-        <v>0.04438379608434317</v>
+        <v>0.04608095022116387</v>
       </c>
       <c r="E14">
-        <v>0.1139036355800833</v>
+        <v>0.05323539706517444</v>
       </c>
       <c r="F14">
-        <v>4.651624989708097</v>
+        <v>6.933337907014931</v>
       </c>
       <c r="G14">
-        <v>4.134710529563506</v>
+        <v>7.367419204011696</v>
       </c>
       <c r="H14">
-        <v>2.799133424391812</v>
+        <v>3.6396771973873</v>
       </c>
       <c r="I14">
-        <v>3.402075839405256</v>
+        <v>5.172687974147408</v>
       </c>
       <c r="J14">
-        <v>0.2500445519021923</v>
+        <v>0.208580824366372</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2105305230119541</v>
+        <v>0.1237523439460801</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08129882800266053</v>
+        <v>0.02651400052677921</v>
       </c>
       <c r="D15">
-        <v>0.0442834217970649</v>
+        <v>0.04561177777978287</v>
       </c>
       <c r="E15">
-        <v>0.1139145354882327</v>
+        <v>0.05293280946898271</v>
       </c>
       <c r="F15">
-        <v>4.638398991914102</v>
+        <v>6.848833022543971</v>
       </c>
       <c r="G15">
-        <v>4.119283301500786</v>
+        <v>7.274366803704083</v>
       </c>
       <c r="H15">
-        <v>2.792801120007255</v>
+        <v>3.596650763026673</v>
       </c>
       <c r="I15">
-        <v>3.392100025023069</v>
+        <v>5.109340052304873</v>
       </c>
       <c r="J15">
-        <v>0.2498235563125561</v>
+        <v>0.2064871499823866</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2104863773735062</v>
+        <v>0.1227908821843045</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0814641117557624</v>
+        <v>0.02638305939449026</v>
       </c>
       <c r="D16">
-        <v>0.04370634195043266</v>
+        <v>0.04298768278794185</v>
       </c>
       <c r="E16">
-        <v>0.1139891510305127</v>
+        <v>0.05124953560460099</v>
       </c>
       <c r="F16">
-        <v>4.563454017970486</v>
+        <v>6.374993230643753</v>
       </c>
       <c r="G16">
-        <v>4.03166719115859</v>
+        <v>6.752413108781866</v>
       </c>
       <c r="H16">
-        <v>2.757003943429652</v>
+        <v>3.355541540488616</v>
       </c>
       <c r="I16">
-        <v>3.335556838464754</v>
+        <v>4.754130078060399</v>
       </c>
       <c r="J16">
-        <v>0.2485943341445704</v>
+        <v>0.1947785599148517</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2102596431740693</v>
+        <v>0.1174265089372142</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08156953925634802</v>
+        <v>0.02631384021723981</v>
       </c>
       <c r="D17">
-        <v>0.0433506113365496</v>
+        <v>0.0414291506116804</v>
       </c>
       <c r="E17">
-        <v>0.1140457667778136</v>
+        <v>0.05025886822344461</v>
       </c>
       <c r="F17">
-        <v>4.518229954706555</v>
+        <v>6.092764635413602</v>
       </c>
       <c r="G17">
-        <v>3.978618488073664</v>
+        <v>6.441359504858156</v>
       </c>
       <c r="H17">
-        <v>2.7354792489337</v>
+        <v>3.212060327515928</v>
       </c>
       <c r="I17">
-        <v>3.301423122165716</v>
+        <v>4.542556348882187</v>
       </c>
       <c r="J17">
-        <v>0.2478733625171117</v>
+        <v>0.1878318083599737</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.21014394140159</v>
+        <v>0.114255013574116</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08163166196550797</v>
+        <v>0.02627779810820208</v>
       </c>
       <c r="D18">
-        <v>0.0431453610546626</v>
+        <v>0.04054928094435439</v>
       </c>
       <c r="E18">
-        <v>0.1140823140050493</v>
+        <v>0.04970327790435292</v>
       </c>
       <c r="F18">
-        <v>4.49249302299387</v>
+        <v>5.933234415674832</v>
       </c>
       <c r="G18">
-        <v>3.948361920073637</v>
+        <v>6.265473570227186</v>
       </c>
       <c r="H18">
-        <v>2.723258095245626</v>
+        <v>3.131002497171039</v>
       </c>
       <c r="I18">
-        <v>3.281992512070133</v>
+        <v>4.422962202113013</v>
       </c>
       <c r="J18">
-        <v>0.2474708134322796</v>
+        <v>0.1839149076255424</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2100859785397517</v>
+        <v>0.1124709473735024</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08165295066009293</v>
+        <v>0.02626621568556686</v>
       </c>
       <c r="D19">
-        <v>0.04307575493768567</v>
+        <v>0.04025401808851825</v>
       </c>
       <c r="E19">
-        <v>0.1140953723361378</v>
+        <v>0.04951750018513756</v>
       </c>
       <c r="F19">
-        <v>4.483825969884379</v>
+        <v>5.879674257175139</v>
       </c>
       <c r="G19">
-        <v>3.938161289513062</v>
+        <v>6.206411412100408</v>
       </c>
       <c r="H19">
-        <v>2.719147500196925</v>
+        <v>3.103795999825138</v>
       </c>
       <c r="I19">
-        <v>3.275448249123514</v>
+        <v>4.382809717369526</v>
       </c>
       <c r="J19">
-        <v>0.2473365980628799</v>
+        <v>0.1826015205340852</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2100678269108585</v>
+        <v>0.1118734487474455</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0815581628205706</v>
+        <v>0.0263208119006908</v>
       </c>
       <c r="D20">
-        <v>0.04338854573108009</v>
+        <v>0.04159329734920547</v>
       </c>
       <c r="E20">
-        <v>0.1140393276552434</v>
+        <v>0.05036282954484683</v>
       </c>
       <c r="F20">
-        <v>4.523015659545337</v>
+        <v>6.122512011624536</v>
       </c>
       <c r="G20">
-        <v>3.984239111306863</v>
+        <v>6.474151560010398</v>
       </c>
       <c r="H20">
-        <v>2.737754085559743</v>
+        <v>3.227178744967773</v>
       </c>
       <c r="I20">
-        <v>3.305035758850011</v>
+        <v>4.56485675079557</v>
       </c>
       <c r="J20">
-        <v>0.2479488544886479</v>
+        <v>0.1885629867035448</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2101553692208284</v>
+        <v>0.1145883948736781</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08125739958887657</v>
+        <v>0.02655152317843346</v>
       </c>
       <c r="D21">
-        <v>0.04443189563728112</v>
+        <v>0.04630716962806147</v>
       </c>
       <c r="E21">
-        <v>0.1138986237849053</v>
+        <v>0.0533814434368356</v>
       </c>
       <c r="F21">
-        <v>4.657982274591717</v>
+        <v>6.974057482925332</v>
       </c>
       <c r="G21">
-        <v>4.142122368998002</v>
+        <v>7.412254179339527</v>
       </c>
       <c r="H21">
-        <v>2.802178646993468</v>
+        <v>3.660412740917366</v>
       </c>
       <c r="I21">
-        <v>3.406870600930233</v>
+        <v>5.203212817169884</v>
       </c>
       <c r="J21">
-        <v>0.2501511848732676</v>
+        <v>0.2095902535066543</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.210552156729598</v>
+        <v>0.1242161192634725</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08107400013837207</v>
+        <v>0.02674320225035842</v>
       </c>
       <c r="D22">
-        <v>0.04510837003721591</v>
+        <v>0.04958869836181634</v>
       </c>
       <c r="E22">
-        <v>0.1138421573596506</v>
+        <v>0.0555086842209338</v>
       </c>
       <c r="F22">
-        <v>4.748673783272181</v>
+        <v>7.562637285659036</v>
       </c>
       <c r="G22">
-        <v>4.247626492829795</v>
+        <v>8.060100100838611</v>
       </c>
       <c r="H22">
-        <v>2.845720272745666</v>
+        <v>3.960329515028207</v>
       </c>
       <c r="I22">
-        <v>3.475253603156972</v>
+        <v>5.644433062649767</v>
       </c>
       <c r="J22">
-        <v>0.2516993557020299</v>
+        <v>0.2242200724860837</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2108881709999224</v>
+        <v>0.1309525536106619</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08117068124059301</v>
+        <v>0.02663674065851929</v>
       </c>
       <c r="D23">
-        <v>0.04474780300201076</v>
+        <v>0.04781590537974978</v>
       </c>
       <c r="E23">
-        <v>0.1138690459237601</v>
+        <v>0.05435766828202304</v>
       </c>
       <c r="F23">
-        <v>4.700041032170901</v>
+        <v>7.245173514080761</v>
       </c>
       <c r="G23">
-        <v>4.191102778043899</v>
+        <v>7.710718857118252</v>
       </c>
       <c r="H23">
-        <v>2.822348962675051</v>
+        <v>3.798517969767602</v>
       </c>
       <c r="I23">
-        <v>3.438587690463493</v>
+        <v>5.406450841932951</v>
       </c>
       <c r="J23">
-        <v>0.2508630729908106</v>
+        <v>0.2163203021390174</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2107018048311602</v>
+        <v>0.1273117165892117</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08156330139994239</v>
+        <v>0.02631764838663031</v>
       </c>
       <c r="D24">
-        <v>0.04337139788746924</v>
+        <v>0.04151903683719382</v>
       </c>
       <c r="E24">
-        <v>0.1140422263295857</v>
+        <v>0.05031578544027049</v>
       </c>
       <c r="F24">
-        <v>4.520851223648407</v>
+        <v>6.109054801839619</v>
       </c>
       <c r="G24">
-        <v>3.981697274730891</v>
+        <v>6.45931718470024</v>
       </c>
       <c r="H24">
-        <v>2.73672515344083</v>
+        <v>3.22033928737693</v>
       </c>
       <c r="I24">
-        <v>3.303401883963858</v>
+        <v>4.554768431699046</v>
       </c>
       <c r="J24">
-        <v>0.2479146873642009</v>
+        <v>0.1882321834091911</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2101501760574394</v>
+        <v>0.1144375517616822</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0820435555268002</v>
+        <v>0.02611552432044384</v>
       </c>
       <c r="D25">
-        <v>0.04186193773043811</v>
+        <v>0.03534374412709695</v>
       </c>
       <c r="E25">
-        <v>0.1143813132760521</v>
+        <v>0.04649006697036917</v>
       </c>
       <c r="F25">
-        <v>4.338049164424831</v>
+        <v>4.988285356302868</v>
       </c>
       <c r="G25">
-        <v>3.765568830016434</v>
+        <v>5.222521133830128</v>
       </c>
       <c r="H25">
-        <v>2.650445154802867</v>
+        <v>2.651621494352298</v>
       </c>
       <c r="I25">
-        <v>3.165296621382623</v>
+        <v>3.714525959202035</v>
       </c>
       <c r="J25">
-        <v>0.2451978751497634</v>
+        <v>0.1608814763123476</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2098832758478721</v>
+        <v>0.1020545534689532</v>
       </c>
       <c r="M25">
         <v>0</v>
